--- a/data/finance data.xlsx
+++ b/data/finance data.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,54 +19,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>col1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>col2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>col4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>col1_s2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>col2_s2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo3_s2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>col4_s2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+  <si>
+    <t>AIRBUS</t>
+  </si>
+  <si>
+    <t>Indicateur</t>
+  </si>
+  <si>
+    <t>Moyenne de Taux croissant</t>
+  </si>
+  <si>
+    <t>（Round(2)-1）*4</t>
+  </si>
+  <si>
+    <t>BNA</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>Dividende</t>
+  </si>
+  <si>
+    <t>Rendement</t>
+  </si>
+  <si>
+    <t>CA en MEUR</t>
+  </si>
+  <si>
+    <t>SOPRA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>LOREAL</t>
+  </si>
+  <si>
+    <t>BIOMERIEUX</t>
   </si>
 </sst>
 </file>
@@ -392,169 +382,766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>2014</v>
+      </c>
+      <c r="C2">
+        <v>2015</v>
+      </c>
+      <c r="D2">
+        <v>2016</v>
+      </c>
+      <c r="E2">
+        <v>2017</v>
+      </c>
+      <c r="F2">
+        <v>2018</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>2.99</v>
+      </c>
+      <c r="C3">
+        <v>3.42</v>
+      </c>
+      <c r="D3">
+        <v>3.13</v>
+      </c>
+      <c r="E3">
+        <v>3.54</v>
+      </c>
+      <c r="F3">
+        <v>4.66</v>
+      </c>
+      <c r="G3">
+        <v>1.223687298</v>
+      </c>
+      <c r="H3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>13.8</v>
+      </c>
+      <c r="C4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D4">
+        <v>20.6</v>
+      </c>
+      <c r="E4">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="F4">
+        <v>13.82</v>
+      </c>
+      <c r="G4">
+        <v>0.82250192970000002</v>
+      </c>
+      <c r="H4">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5">
+        <v>1.34</v>
+      </c>
+      <c r="E5">
+        <v>1.46</v>
+      </c>
+      <c r="F5">
+        <v>1.85</v>
+      </c>
+      <c r="G5">
+        <v>1.178337763</v>
+      </c>
+      <c r="H5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1.34E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.07E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.87E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.1804677690000001</v>
+      </c>
+      <c r="H6">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>60713</v>
+      </c>
+      <c r="C7">
+        <v>64450</v>
+      </c>
+      <c r="D7">
+        <v>65456</v>
+      </c>
+      <c r="E7">
+        <v>68109</v>
+      </c>
+      <c r="F7">
+        <v>73508</v>
+      </c>
+      <c r="G7">
+        <v>1.0492404820000001</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2014</v>
+      </c>
+      <c r="C11">
+        <v>2015</v>
+      </c>
+      <c r="D11">
+        <v>2016</v>
+      </c>
+      <c r="E11">
+        <v>2017</v>
+      </c>
+      <c r="F11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>8.06</v>
+      </c>
+      <c r="E12">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F12">
+        <v>10.3</v>
+      </c>
+      <c r="G12">
+        <v>1.131201833</v>
+      </c>
+      <c r="H12">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>13.93</v>
+      </c>
+      <c r="E13">
+        <v>11.88</v>
+      </c>
+      <c r="F13">
+        <v>10.9</v>
+      </c>
+      <c r="G13">
+        <v>0.88517201209999996</v>
+      </c>
+      <c r="H13">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1.9</v>
+      </c>
+      <c r="E14">
+        <v>2.12</v>
+      </c>
+      <c r="F14">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G14">
+        <v>1.1050645480000001</v>
+      </c>
+      <c r="H14">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.89E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.07E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.106790645</v>
+      </c>
+      <c r="H15">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>2280</v>
+      </c>
+      <c r="C16">
+        <v>3584</v>
+      </c>
+      <c r="D16">
+        <v>3736</v>
+      </c>
+      <c r="E16">
+        <v>3813</v>
+      </c>
+      <c r="F16">
+        <v>3949</v>
+      </c>
+      <c r="G16">
+        <v>1.1676545679999999</v>
+      </c>
+      <c r="H16">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2014</v>
+      </c>
+      <c r="C20">
+        <v>2015</v>
+      </c>
+      <c r="D20">
+        <v>2016</v>
+      </c>
+      <c r="E20">
+        <v>2017</v>
+      </c>
+      <c r="F20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1.86</v>
+      </c>
+      <c r="C21">
+        <v>2.21</v>
+      </c>
+      <c r="D21">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E21">
+        <v>4.24</v>
+      </c>
+      <c r="F21">
+        <v>4.75</v>
+      </c>
+      <c r="G21">
+        <v>1.2833611739999999</v>
+      </c>
+      <c r="H21">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>27.7</v>
+      </c>
+      <c r="C22">
+        <v>20.3</v>
+      </c>
+      <c r="D22">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E22">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F22">
+        <v>10.8</v>
+      </c>
+      <c r="G22">
+        <v>0.80650334700000004</v>
+      </c>
+      <c r="H22">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2.95</v>
+      </c>
+      <c r="C23">
+        <v>2.65</v>
+      </c>
+      <c r="D23">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E23">
+        <v>2.63</v>
+      </c>
+      <c r="F23">
+        <v>2.64</v>
+      </c>
+      <c r="G23">
+        <v>0.97502626390000002</v>
+      </c>
+      <c r="H23">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>5.74E-2</v>
+      </c>
+      <c r="C24">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D24">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="E24">
+        <v>5.16E-2</v>
+      </c>
+      <c r="F24">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.98044731200000002</v>
+      </c>
+      <c r="H24">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>211987</v>
+      </c>
+      <c r="C25">
+        <v>165357</v>
+      </c>
+      <c r="D25">
+        <v>149743</v>
+      </c>
+      <c r="E25">
+        <v>170101</v>
+      </c>
+      <c r="F25">
+        <v>181497</v>
+      </c>
+      <c r="G25">
+        <v>0.97213902640000005</v>
+      </c>
+      <c r="H25">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2014</v>
+      </c>
+      <c r="C29">
+        <v>2015</v>
+      </c>
+      <c r="D29">
+        <v>2016</v>
+      </c>
+      <c r="E29">
+        <v>2017</v>
+      </c>
+      <c r="F29">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>8.39</v>
+      </c>
+      <c r="C30">
+        <v>5.84</v>
+      </c>
+      <c r="D30">
+        <v>5.5</v>
+      </c>
+      <c r="E30">
+        <v>6.87</v>
+      </c>
+      <c r="F30">
+        <v>7.3</v>
+      </c>
+      <c r="G30">
+        <v>0.98738236310000005</v>
+      </c>
+      <c r="H30">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B31">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C31">
+        <v>26.6</v>
+      </c>
+      <c r="D31">
+        <v>31.5</v>
+      </c>
+      <c r="E31">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>23.5</v>
+      </c>
+      <c r="G31">
+        <v>1.1300677400000001</v>
+      </c>
+      <c r="H31">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B32">
+        <v>2.7</v>
+      </c>
+      <c r="C32">
+        <v>3.1</v>
+      </c>
+      <c r="E32">
+        <v>3.58</v>
+      </c>
+      <c r="F32">
+        <v>3.86</v>
+      </c>
+      <c r="G32">
+        <v>1.1270663830000001</v>
+      </c>
+      <c r="H32">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>43</v>
-      </c>
-      <c r="D5">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="B33">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.02</v>
+      </c>
+      <c r="E33">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="F33">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G33">
+        <v>1.050886201</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B34">
+        <v>22532</v>
+      </c>
+      <c r="C34">
+        <v>25257</v>
+      </c>
+      <c r="D34">
+        <v>25837</v>
+      </c>
+      <c r="E34">
+        <v>27561</v>
+      </c>
+      <c r="F34">
+        <v>28913</v>
+      </c>
+      <c r="G34">
+        <v>1.0649209690000001</v>
+      </c>
+      <c r="H34">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>2014</v>
+      </c>
+      <c r="C38">
+        <v>2015</v>
+      </c>
+      <c r="D38">
+        <v>2016</v>
+      </c>
+      <c r="E38">
+        <v>2017</v>
+      </c>
+      <c r="F38">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>122</v>
-      </c>
-      <c r="C2">
-        <v>132</v>
-      </c>
-      <c r="D2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B39">
+        <v>3.42</v>
+      </c>
+      <c r="C39">
+        <v>2.8</v>
+      </c>
+      <c r="D39">
+        <v>4.42</v>
+      </c>
+      <c r="E39">
+        <v>5.22</v>
+      </c>
+      <c r="F39">
+        <v>5.89</v>
+      </c>
+      <c r="G39">
+        <v>1.1766582109999999</v>
+      </c>
+      <c r="H39">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>222</v>
-      </c>
-      <c r="C3">
-        <v>232</v>
-      </c>
-      <c r="D3">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B40">
+        <v>25.1</v>
+      </c>
+      <c r="C40">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D40">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E40">
+        <v>28.5</v>
+      </c>
+      <c r="F40">
+        <v>25.3</v>
+      </c>
+      <c r="G40">
+        <v>1.0391650100000001</v>
+      </c>
+      <c r="H40">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>322</v>
-      </c>
-      <c r="C4">
-        <v>332</v>
-      </c>
-      <c r="D4">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E41">
+        <v>1.22</v>
+      </c>
+      <c r="F41">
+        <v>1.37</v>
+      </c>
+      <c r="G41">
+        <v>1.0830542190000001</v>
+      </c>
+      <c r="H41">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>422</v>
-      </c>
-      <c r="C5">
-        <v>432</v>
-      </c>
-      <c r="D5">
-        <v>442</v>
+      <c r="B42">
+        <v>1.17E-2</v>
+      </c>
+      <c r="C42">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="D42">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E42">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F42">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="G42">
+        <v>0.95630361770000005</v>
+      </c>
+      <c r="H42">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>1698</v>
+      </c>
+      <c r="C43">
+        <v>1965</v>
+      </c>
+      <c r="D43">
+        <v>2104</v>
+      </c>
+      <c r="E43">
+        <v>2267</v>
+      </c>
+      <c r="F43">
+        <v>2418</v>
+      </c>
+      <c r="G43">
+        <v>1.0930152660000001</v>
+      </c>
+      <c r="H43">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
